--- a/biology/Médecine/Fondation_ARC_pour_la_recherche_sur_le_cancer/Fondation_ARC_pour_la_recherche_sur_le_cancer.xlsx
+++ b/biology/Médecine/Fondation_ARC_pour_la_recherche_sur_le_cancer/Fondation_ARC_pour_la_recherche_sur_le_cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fondation ARC pour la recherche sur le cancer, reconnue d’utilité publique, créée en tant qu'association le 29 juin 1962, puis née en tant que fondation le 16 mars 2012[1], d’une évolution statutaire de l’Association pour la recherche sur le cancer (ARC). Elle est exclusivement destinée à la recherche sur le cancer. Son siège social est situé à Villejuif (Val-de-Marne). Elle est présidée depuis le 9 novembre 2022 par Dominique Bazy.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fondation ARC pour la recherche sur le cancer, reconnue d’utilité publique, créée en tant qu'association le 29 juin 1962, puis née en tant que fondation le 16 mars 2012, d’une évolution statutaire de l’Association pour la recherche sur le cancer (ARC). Elle est exclusivement destinée à la recherche sur le cancer. Son siège social est situé à Villejuif (Val-de-Marne). Elle est présidée depuis le 9 novembre 2022 par Dominique Bazy.
 En mutualisant ses forces avec celles des différents organismes publics impliqués dans la lutte contre la maladie, notamment dans le cadre du Plan cancer, la fondation ARC concentre toute son action sur la réalisation de son objectif : contribuer à guérir deux cancers sur trois d'ici 2025 (contre un sur deux en 2013).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Fondation ARC pour la recherche sur le cancer, reconnue d’utilité publique, est une fondation exclusivement destinée à la recherche sur le cancer. Son ambition est de permettre que d’ici 2025, deux cancers sur trois soient guéris.
 Elle a deux missions :
@@ -545,7 +559,9 @@
           <t>Ressources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ressources de la Fondation ARC proviennent exclusivement de la générosité de ses donateurs et testateurs. En toute indépendance, libre de sa politique et de ses choix d'action, la Fondation ARC s'engage dans la durée sur des moyens, des objectifs et des résultats qu'elle rend publics.
 </t>
@@ -576,15 +592,17 @@
           <t>Chiffres-clés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 2021[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2021 :
 72,9 % de ses dépenses (29,28 millions d’euros) ont été consacrées au soutien à la recherche sur le cancer et à l’information du public ;
 229 nouveaux projets de recherche sur le cancer soutenus ;
 164 000 donateurs ;
 40,47 millions d'euros issus de la générosité du public ;
 216 experts scientifiques bénévoles mobilisés pour l'analyse des dossiers de financement.
-En 2022[3] :
+En 2022 :
 la Fondation ARC a financé 154 projets et a soutenu 113 jeunes chercheurs ;
 elle a pu compter sur la générosité de 151 300 donateurs et a reçu 41,81 millions d’euros pour financer principalement des missions sociales ;</t>
         </is>
